--- a/question_difficulty_level_result/5.xlsx
+++ b/question_difficulty_level_result/5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,31 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>frequency</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>frequency_occurrence</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>frequency_occurrence_probab</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>max_probab</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>max_probab_percentage</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>recommended_level</t>
         </is>
       </c>
@@ -480,7 +505,28 @@
           <t>5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>12</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{"L2":9,"L1":3}</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>{"L2":0.75,"L1":0.25}</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -510,7 +556,28 @@
           <t>5</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{"L2":9,"L1":3}</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>{"L2":0.75,"L1":0.25}</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -540,7 +607,28 @@
           <t>5</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="n">
+        <v>9</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{"L3":9}</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -571,6 +659,11 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -597,6 +690,11 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -623,6 +721,11 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -649,6 +752,11 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -674,7 +782,28 @@
           <t>5</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="n">
+        <v>8</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>{"L2":5,"L3":3}</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>{"L2":0.625,"L3":0.375}</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>62.50</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -704,7 +833,28 @@
           <t>5</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>{"L2":8}</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>{"L2":1.0}</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -734,7 +884,28 @@
           <t>5</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="n">
+        <v>8</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>{"L2":7,"L1":1}</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>{"L2":0.875,"L1":0.125}</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -764,7 +935,28 @@
           <t>5</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="n">
+        <v>8</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>{"L1":4,"L2":4}</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>{"L1":0.5,"L2":0.5}</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -794,7 +986,28 @@
           <t>5</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="n">
+        <v>8</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>{"L3":6,"L2":2}</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>{"L3":0.75,"L2":0.25}</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -824,7 +1037,28 @@
           <t>5</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="n">
+        <v>8</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>{"L1":8}</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>{"L1":1.0}</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
@@ -854,7 +1088,28 @@
           <t>5</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="n">
+        <v>8</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>{"L3":6,"L2":2}</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>{"L3":0.75,"L2":0.25}</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -884,7 +1139,28 @@
           <t>5</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="n">
+        <v>8</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>{"L3":7,"L2":1}</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>{"L3":0.875,"L2":0.125}</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -914,7 +1190,28 @@
           <t>5</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="n">
+        <v>8</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>{"L3":7,"L2":1}</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>{"L3":0.875,"L2":0.125}</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -944,7 +1241,28 @@
           <t>5</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="n">
+        <v>8</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -974,7 +1292,28 @@
           <t>5</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="n">
+        <v>8</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>{"L3":4,"L2":4}</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>{"L3":0.5,"L2":0.5}</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1004,7 +1343,28 @@
           <t>5</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="n">
+        <v>8</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>{"L3":6,"L2":2}</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>{"L3":0.75,"L2":0.25}</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1034,7 +1394,28 @@
           <t>5</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="n">
+        <v>8</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>{"L3":5,"L2":3}</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>{"L3":0.625,"L2":0.375}</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>62.50</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1064,7 +1445,28 @@
           <t>5</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="n">
+        <v>8</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>{"L3":6,"L1":1,"L2":1}</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>{"L3":0.75,"L1":0.125,"L2":0.125}</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1094,7 +1496,28 @@
           <t>5</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="n">
+        <v>8</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1124,7 +1547,28 @@
           <t>5</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="n">
+        <v>8</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1154,7 +1598,28 @@
           <t>5</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="n">
+        <v>8</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1184,7 +1649,28 @@
           <t>5</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="n">
+        <v>8</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1210,7 +1696,28 @@
           <t>5</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="n">
+        <v>14</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>{"L3":10,"L2":3,"L1":1}</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>{"L3":0.7142857143,"L2":0.2142857143,"L1":0.0714285714}</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1240,7 +1747,28 @@
           <t>5</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="n">
+        <v>14</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>{"L3":10,"L2":3,"L1":1}</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>{"L3":0.7142857143,"L2":0.2142857143,"L1":0.0714285714}</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1270,7 +1798,28 @@
           <t>5</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="n">
+        <v>8</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>{"L1":8}</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>{"L1":1.0}</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>L1</t>
         </is>
@@ -1300,7 +1849,28 @@
           <t>5</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="n">
+        <v>8</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1330,7 +1900,28 @@
           <t>5</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="n">
+        <v>8</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1360,7 +1951,28 @@
           <t>5</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="n">
+        <v>8</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>{"L3":7,"L2":1}</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>{"L3":0.875,"L2":0.125}</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1390,7 +2002,28 @@
           <t>5</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="n">
+        <v>8</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>{"L3":5,"L2":2,"L1":1}</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>{"L3":0.625,"L2":0.25,"L1":0.125}</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>62.50</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1420,7 +2053,28 @@
           <t>5</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="n">
+        <v>8</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>{"L2":5,"L1":2,"L3":1}</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>{"L2":0.625,"L1":0.25,"L3":0.125}</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>62.50</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1450,7 +2104,28 @@
           <t>5</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="n">
+        <v>9</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>{"L3":5,"L2":4}</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>{"L3":0.5555555556,"L2":0.4444444444}</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>55.56</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1481,6 +2156,11 @@
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1506,7 +2186,28 @@
           <t>5</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="n">
+        <v>8</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>{"L3":5,"L2":3}</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>{"L3":0.625,"L2":0.375}</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>62.50</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1536,7 +2237,28 @@
           <t>5</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="n">
+        <v>8</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>{"L1":5,"L2":3}</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>{"L1":0.625,"L2":0.375}</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>62.50</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -1567,6 +2289,11 @@
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1593,6 +2320,11 @@
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1619,6 +2351,11 @@
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1645,6 +2382,11 @@
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1671,6 +2413,11 @@
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1697,6 +2444,11 @@
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1723,6 +2475,11 @@
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1749,6 +2506,11 @@
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1775,6 +2537,11 @@
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1801,6 +2568,11 @@
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1827,6 +2599,11 @@
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1853,6 +2630,11 @@
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1879,6 +2661,11 @@
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1905,6 +2692,11 @@
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1931,6 +2723,11 @@
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1957,6 +2754,11 @@
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1983,6 +2785,11 @@
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2009,6 +2816,11 @@
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2035,6 +2847,11 @@
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2061,6 +2878,11 @@
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2087,6 +2909,11 @@
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2113,6 +2940,11 @@
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2139,6 +2971,11 @@
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2165,6 +3002,11 @@
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2191,6 +3033,11 @@
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2217,6 +3064,11 @@
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2243,6 +3095,11 @@
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2269,6 +3126,11 @@
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2295,6 +3157,11 @@
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2321,6 +3188,11 @@
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2347,6 +3219,11 @@
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2373,6 +3250,11 @@
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2399,6 +3281,11 @@
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2425,6 +3312,11 @@
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2451,6 +3343,11 @@
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2477,6 +3374,11 @@
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2503,6 +3405,11 @@
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2529,6 +3436,11 @@
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2555,6 +3467,11 @@
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2581,6 +3498,11 @@
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2607,6 +3529,11 @@
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2633,6 +3560,11 @@
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2659,6 +3591,11 @@
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2685,6 +3622,11 @@
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
